--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,6 +61,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -134,14 +142,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="votosMRE" displayName="votosMRE" ref="A1:P3" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:P3"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="votosMRE" displayName="votosMRE" ref="A1:Q4" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:Q4"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="estados"/>
     <tableColumn id="2" name="tipoMesa"/>
     <tableColumn id="3" name="numeroMesa"/>
     <tableColumn id="4" name="PAN"/>
-    <tableColumn id="5" name="PRI"/>
+    <tableColumn id="5" name="PRI" dataDxfId="1"/>
     <tableColumn id="6" name="PRD"/>
     <tableColumn id="7" name="VERDE"/>
     <tableColumn id="8" name="PT"/>
@@ -153,6 +161,9 @@
     <tableColumn id="14" name="PT_MORENA"/>
     <tableColumn id="15" name="CANDIDATOS_NO_REGISTRADOS"/>
     <tableColumn id="16" name="VOTOS_NULOS"/>
+    <tableColumn id="19" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,29 +470,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="18.5703125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="14.140625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
-    <col width="6.28515625" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.140625" bestFit="1" customWidth="1" style="1" min="6" max="7"/>
-    <col width="5.5703125" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
-    <col width="28.5703125" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
-    <col width="21.42578125" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
-    <col width="12.140625" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
-    <col width="23.42578125" customWidth="1" style="1" min="13" max="13"/>
-    <col width="18.7109375" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
+    <col width="18.5546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="14.109375" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="7.33203125" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="9.109375" bestFit="1" customWidth="1" style="1" min="6" max="7"/>
+    <col width="5.5546875" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="28.5546875" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
+    <col width="11.5546875" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="21.44140625" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="12.109375" bestFit="1" customWidth="1" style="1" min="12" max="12"/>
+    <col width="23.44140625" customWidth="1" style="1" min="13" max="13"/>
+    <col width="18.6640625" bestFit="1" customWidth="1" style="1" min="14" max="14"/>
     <col width="33" bestFit="1" customWidth="1" style="1" min="15" max="15"/>
-    <col width="16.85546875" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
+    <col width="16.88671875" bestFit="1" customWidth="1" style="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="1">
@@ -565,6 +576,11 @@
           <t>VOTOS_NULOS</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="15" customHeight="1" s="1">
       <c r="A2" s="2" t="inlineStr">
@@ -580,54 +596,54 @@
       <c r="C2" s="2" t="n"/>
       <c r="D2" s="2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="M2" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="N2" s="2" t="inlineStr">
         <is>
           <t>1</t>
@@ -635,13 +651,17 @@
       </c>
       <c r="O2" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P2" s="2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2">
+        <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="1">
@@ -663,42 +683,42 @@
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -708,21 +728,92 @@
       </c>
       <c r="N3" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3">
+        <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>
+        <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="1"/>
+    <row r="4" ht="15" customHeight="1" s="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D4">
+        <f>SUM(D2+D3)</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>SUM(E2+E3)</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>SUM(F2+F3)</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>SUM(G2+G3)</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>SUM(H2+H3)</f>
+        <v/>
+      </c>
+      <c r="I4">
+        <f>SUM(I2+I3)</f>
+        <v/>
+      </c>
+      <c r="J4">
+        <f>SUM(J2+J3)</f>
+        <v/>
+      </c>
+      <c r="K4">
+        <f>SUM(K2+K3)</f>
+        <v/>
+      </c>
+      <c r="L4">
+        <f>SUM(L2+L3)</f>
+        <v/>
+      </c>
+      <c r="M4">
+        <f>SUM(M2+M3)</f>
+        <v/>
+      </c>
+      <c r="N4">
+        <f>SUM(N2+N3)</f>
+        <v/>
+      </c>
+      <c r="O4">
+        <f>SUM(O2+O3)</f>
+        <v/>
+      </c>
+      <c r="P4">
+        <f>SUM(P2+P3)</f>
+        <v/>
+      </c>
+      <c r="Q4">
+        <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>
+        <v/>
+      </c>
+    </row>
     <row r="5" ht="15" customHeight="1" s="1"/>
     <row r="6" ht="15" customHeight="1" s="1"/>
     <row r="7" ht="15" customHeight="1" s="1">

--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vmre\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsTecI\Desktop\virtualFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5CAE2-0178-4BDF-B836-499659557B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7656"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>estados</t>
   </si>
@@ -69,10 +81,16 @@
     <t>VOTOS_NULOS</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Nayarit</t>
   </si>
   <si>
     <t>MEC POSTAL</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>MEC INTERNET</t>
@@ -81,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +145,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -145,25 +166,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="votosMRE" displayName="votosMRE" ref="A1:P3" totalsRowShown="0">
-  <autoFilter ref="A1:P3"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="estados"/>
-    <tableColumn id="2" name="tipoMesa"/>
-    <tableColumn id="3" name="numeroMesa"/>
-    <tableColumn id="4" name="PAN"/>
-    <tableColumn id="5" name="PRI" dataDxfId="0"/>
-    <tableColumn id="6" name="PRD"/>
-    <tableColumn id="7" name="VERDE"/>
-    <tableColumn id="8" name="PT"/>
-    <tableColumn id="9" name="MOVIMIENTO_CIUDADANO"/>
-    <tableColumn id="10" name="MORENA"/>
-    <tableColumn id="11" name="VERDE_PT_MORENA"/>
-    <tableColumn id="12" name="VERDE_PT"/>
-    <tableColumn id="13" name="VERDE_MORENA"/>
-    <tableColumn id="14" name="PT_MORENA"/>
-    <tableColumn id="15" name="CANDIDATOS_NO_REGISTRADOS"/>
-    <tableColumn id="16" name="VOTOS_NULOS"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="votosMRE" displayName="votosMRE" ref="A1:Q4" totalsRowShown="0">
+  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="estados"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="tipoMesa"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="numeroMesa"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PAN"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRI" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRD"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="VERDE"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PT"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MOVIMIENTO_CIUDADANO"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MORENA"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="VERDE_PT_MORENA"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="VERDE_PT"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="VERDE_MORENA"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PT_MORENA"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CANDIDATOS_NO_REGISTRADOS"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VOTOS_NULOS"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -465,33 +489,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,109 +564,177 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>2</v>
+      <c r="C4"/>
+      <c r="D4">
+        <f t="shared" ref="C4:P4" si="0">SUM(D2+D3)</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsTecI\Desktop\virtualFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5CAE2-0178-4BDF-B836-499659557B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926CD76-FDF4-4163-85FB-4A9E3165BA37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>estados</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>MEC POSTAL</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>MEC INTERNET</t>
@@ -492,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,44 +575,44 @@
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>19</v>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -623,49 +620,49 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>19</v>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,56 +671,56 @@
       </c>
       <c r="C4"/>
       <c r="D4">
-        <f t="shared" ref="C4:P4" si="0">SUM(D2+D3)</f>
+        <f t="shared" ref="D4:P4" si="0">SUM(D2+D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2">
         <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>

--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsTecI\Desktop\virtualFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2926CD76-FDF4-4163-85FB-4A9E3165BA37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F87B7B-6C17-409B-ADB3-84D449D55A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -614,6 +612,10 @@
       <c r="P2" s="2">
         <v>0</v>
       </c>
+      <c r="Q2" s="1">
+        <f>SUM(C2:P2)</f>
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -626,43 +628,60 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
+        <f t="shared" ref="D3:Q3" si="0">SUBTOTAL(109,D2)</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="O3" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(C3:P3)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,60 +690,60 @@
       </c>
       <c r="C4"/>
       <c r="D4">
-        <f t="shared" ref="D4:P4" si="0">SUM(D2+D3)</f>
+        <f t="shared" ref="D4:P4" si="1">SUM(D2+D3)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <f>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</f>
-        <v>26</v>
+        <f>SUM(Q2:Q3)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AsTecI\Desktop\virtualFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vmre\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F87B7B-6C17-409B-ADB3-84D449D55A93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,26 +162,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="votosMRE" displayName="votosMRE" ref="A1:Q4" totalsRowShown="0">
-  <autoFilter ref="A1:Q4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="votosMRE" displayName="votosMRE" ref="A1:Q4" totalsRowShown="0">
+  <autoFilter ref="A1:Q4"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="estados"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="tipoMesa"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="numeroMesa"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PAN"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="PRI" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="PRD"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="VERDE"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="PT"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="MOVIMIENTO_CIUDADANO"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MORENA"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="VERDE_PT_MORENA"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="VERDE_PT"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="VERDE_MORENA"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PT_MORENA"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="CANDIDATOS_NO_REGISTRADOS"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VOTOS_NULOS"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Total" dataDxfId="0">
+    <tableColumn id="1" name="estados"/>
+    <tableColumn id="2" name="tipoMesa"/>
+    <tableColumn id="3" name="numeroMesa"/>
+    <tableColumn id="4" name="PAN"/>
+    <tableColumn id="5" name="PRI" dataDxfId="1"/>
+    <tableColumn id="6" name="PRD"/>
+    <tableColumn id="7" name="VERDE"/>
+    <tableColumn id="8" name="PT"/>
+    <tableColumn id="9" name="MOVIMIENTO_CIUDADANO"/>
+    <tableColumn id="10" name="MORENA"/>
+    <tableColumn id="11" name="VERDE_PT_MORENA"/>
+    <tableColumn id="12" name="VERDE_PT"/>
+    <tableColumn id="13" name="VERDE_MORENA"/>
+    <tableColumn id="14" name="PT_MORENA"/>
+    <tableColumn id="15" name="CANDIDATOS_NO_REGISTRADOS"/>
+    <tableColumn id="16" name="VOTOS_NULOS"/>
+    <tableColumn id="17" name="Total" dataDxfId="0">
       <calculatedColumnFormula>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -486,31 +485,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.44140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -617,7 +616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -628,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:Q3" si="0">SUBTOTAL(109,D2)</f>
+        <f t="shared" ref="D3:P3" si="0">SUBTOTAL(109,D2)</f>
         <v>0</v>
       </c>
       <c r="E3" s="2">
@@ -684,61 +683,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4"/>
       <c r="D4">
-        <f t="shared" ref="D4:P4" si="1">SUM(D2+D3)</f>
+        <f>SUM(D2:D3)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f>SUM(E2:E3)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
+        <f>SUM(F2:F3)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f>SUM(G2:G3)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f>SUM(H2:H3)</f>
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
+        <f>SUM(I2:I3)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
+        <f>SUM(J2:J3)</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
+        <f>SUM(K2:K3)</f>
         <v>8</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f>SUM(L2:L3)</f>
         <v>4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f>SUM(M2:M3)</f>
         <v>30</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f>SUM(N2:N3)</f>
         <v>6</v>
       </c>
       <c r="O4">
-        <f t="shared" si="1"/>
+        <f>SUM(O2:O3)</f>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="1"/>
+        <f>SUM(P2:P3)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="2">
@@ -746,11 +745,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/data/vmre.xlsx
+++ b/data/vmre.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,22 +15,11 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>estados</t>
   </si>
@@ -80,16 +69,43 @@
     <t>VOTOS_NULOS</t>
   </si>
   <si>
+    <t>Nayarit</t>
+  </si>
+  <si>
+    <t>MEC POSTAL</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>MEC INTERNET</t>
+  </si>
+  <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Nayarit</t>
-  </si>
-  <si>
-    <t>MEC POSTAL</t>
-  </si>
-  <si>
-    <t>MEC INTERNET</t>
   </si>
 </sst>
 </file>
@@ -133,18 +149,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -169,7 +183,7 @@
     <tableColumn id="2" name="tipoMesa"/>
     <tableColumn id="3" name="numeroMesa"/>
     <tableColumn id="4" name="PAN"/>
-    <tableColumn id="5" name="PRI" dataDxfId="1"/>
+    <tableColumn id="5" name="PRI" dataDxfId="0"/>
     <tableColumn id="6" name="PRD"/>
     <tableColumn id="7" name="VERDE"/>
     <tableColumn id="8" name="PT"/>
@@ -181,9 +195,7 @@
     <tableColumn id="14" name="PT_MORENA"/>
     <tableColumn id="15" name="CANDIDATOS_NO_REGISTRADOS"/>
     <tableColumn id="16" name="VOTOS_NULOS"/>
-    <tableColumn id="17" name="Total" dataDxfId="0">
-      <calculatedColumnFormula>SUM(votosMRE[[#This Row],[VOTOS_NULOS]]+votosMRE[[#This Row],[CANDIDATOS_NO_REGISTRADOS]]+votosMRE[[#This Row],[PT_MORENA]]+votosMRE[[#This Row],[VERDE_MORENA]]+votosMRE[[#This Row],[VERDE_PT]]+votosMRE[[#This Row],[VERDE_PT_MORENA]]+votosMRE[[#This Row],[MORENA]]+votosMRE[[#This Row],[MOVIMIENTO_CIUDADANO]]+votosMRE[[#This Row],[PT]]+votosMRE[[#This Row],[VERDE]]+votosMRE[[#This Row],[PRD]]+votosMRE[[#This Row],[PRI]]+votosMRE[[#This Row],[PAN]])</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="19" name="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,202 +571,124 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1">
-        <f>SUM(C2:P2)</f>
-        <v>27</v>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:P3" si="0">SUBTOTAL(109,D2)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>SUM(C3:P3)</f>
-        <v>27</v>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4">
-        <f>SUM(D2:D3)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>SUM(E2:E3)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>SUM(F2:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>SUM(G2:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>SUM(H2:H3)</f>
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <f>SUM(I2:I3)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>SUM(J2:J3)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>SUM(K2:K3)</f>
-        <v>8</v>
-      </c>
-      <c r="L4">
-        <f>SUM(L2:L3)</f>
-        <v>4</v>
-      </c>
-      <c r="M4">
-        <f>SUM(M2:M3)</f>
-        <v>30</v>
-      </c>
-      <c r="N4">
-        <f>SUM(N2:N3)</f>
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <f>SUM(O2:O3)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>SUM(P2:P3)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>SUM(Q2:Q3)</f>
-        <v>54</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="2"/>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>